--- a/张士辉2016-01.xlsx
+++ b/张士辉2016-01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Doing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子评论收藏接口Api</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,271 +339,7 @@
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="153">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <fill>
         <patternFill>
@@ -1906,7 +1646,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2049,8 +1789,8 @@
       <c r="H4" s="13">
         <v>42390</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
+      <c r="I4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -2084,8 +1824,8 @@
       <c r="H5" s="13">
         <v>42390</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>36</v>
+      <c r="I5" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -2152,20 +1892,38 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13">
+        <v>42390</v>
+      </c>
+      <c r="E8" s="13">
+        <v>42390</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>42390</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42390</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
@@ -2544,267 +2302,333 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:K30">
-    <cfRule type="expression" dxfId="152" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="133" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="134" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="135" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="expression" dxfId="149" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="79" stopIfTrue="1">
       <formula>$I15="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="80" stopIfTrue="1">
       <formula>$I15="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="81" stopIfTrue="1">
       <formula>$I15="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="expression" dxfId="146" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="124" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="125" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="126" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="expression" dxfId="143" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="121" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="122" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="123" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="expression" dxfId="140" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="118" stopIfTrue="1">
       <formula>$I20="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="119" stopIfTrue="1">
       <formula>$I20="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="120" stopIfTrue="1">
       <formula>$I20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="expression" dxfId="137" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="103" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="104" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="105" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K8">
-    <cfRule type="expression" dxfId="134" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="100" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="102" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="131" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
       <formula>$I9="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
       <formula>$I9="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="99" stopIfTrue="1">
       <formula>$I9="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="128" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="94" stopIfTrue="1">
       <formula>$I10="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="95" stopIfTrue="1">
       <formula>$I10="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="96" stopIfTrue="1">
       <formula>$I10="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K11">
-    <cfRule type="expression" dxfId="125" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="91" stopIfTrue="1">
       <formula>$I11="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="92" stopIfTrue="1">
       <formula>$I11="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="93" stopIfTrue="1">
       <formula>$I11="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:K12">
-    <cfRule type="expression" dxfId="122" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="88" stopIfTrue="1">
       <formula>$I12="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
       <formula>$I12="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="90" stopIfTrue="1">
       <formula>$I12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="119" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="85" stopIfTrue="1">
       <formula>$I13="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
       <formula>$I13="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="87" stopIfTrue="1">
       <formula>$I13="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:K14">
-    <cfRule type="expression" dxfId="116" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
       <formula>$I14="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
       <formula>$I14="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="84" stopIfTrue="1">
       <formula>$I14="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:K19">
-    <cfRule type="expression" dxfId="113" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="67" stopIfTrue="1">
       <formula>$I19="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="68" stopIfTrue="1">
       <formula>$I19="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="69" stopIfTrue="1">
       <formula>$I19="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="110" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
       <formula>$I16="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
       <formula>$I16="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
       <formula>$I16="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K17">
-    <cfRule type="expression" dxfId="107" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
       <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="104" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="101" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="55" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="56" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="57" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="98" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
       <formula>$I20="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
       <formula>$I20="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
       <formula>$I20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K21">
-    <cfRule type="expression" dxfId="95" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
       <formula>$I21="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
       <formula>$I21="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
       <formula>$I21="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="92" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>$I22="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>$I22="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
       <formula>$I22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="expression" dxfId="89" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="37" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="39" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="expression" dxfId="86" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="expression" dxfId="83" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="193" stopIfTrue="1">
       <formula>#REF!="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="194" stopIfTrue="1">
       <formula>#REF!="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="195" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+      <formula>$I8="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+      <formula>$I8="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="18" stopIfTrue="1">
+      <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+      <formula>$I8="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
+      <formula>$I8="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+      <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>$I4="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>$I4="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+      <formula>$I4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+      <formula>$I4="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+      <formula>$I4="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+      <formula>$I4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>$I5="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>$I5="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>$I5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$I5="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$I5="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
